--- a/Toulmin/_toulmin_SIAMv4_testaccounts.xlsx
+++ b/Toulmin/_toulmin_SIAMv4_testaccounts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE9F56-5214-4D54-8C73-4A12606B7C26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926150C-F182-490A-9102-9C537616F400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9840" yWindow="-12600" windowWidth="18948" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31140" yWindow="-10812" windowWidth="18948" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts for Testing Purposes" sheetId="2" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +536,7 @@
     <col min="5" max="5" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
       <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -584,7 +584,14 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="str">
+        <f>$A2</f>
+        <v>Account</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>$A2</f>
+        <v>Account</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="str">
